--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.57272562743135</v>
+        <v>9.663483666666666</v>
       </c>
       <c r="H2">
-        <v>9.57272562743135</v>
+        <v>28.990451</v>
       </c>
       <c r="I2">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714015</v>
       </c>
       <c r="J2">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714016</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>15.3923127951311</v>
+        <v>2.212188333333333</v>
       </c>
       <c r="N2">
-        <v>15.3923127951311</v>
+        <v>6.636565</v>
       </c>
       <c r="O2">
-        <v>0.5071473805200184</v>
+        <v>0.06691893508610254</v>
       </c>
       <c r="P2">
-        <v>0.5071473805200184</v>
+        <v>0.06691893508610254</v>
       </c>
       <c r="Q2">
-        <v>147.346387159391</v>
+        <v>21.37744582675722</v>
       </c>
       <c r="R2">
-        <v>147.346387159391</v>
+        <v>192.397012440815</v>
       </c>
       <c r="S2">
-        <v>0.2268528361047595</v>
+        <v>0.02792392297214234</v>
       </c>
       <c r="T2">
-        <v>0.2268528361047595</v>
+        <v>0.02792392297214234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.57272562743135</v>
+        <v>9.663483666666666</v>
       </c>
       <c r="H3">
-        <v>9.57272562743135</v>
+        <v>28.990451</v>
       </c>
       <c r="I3">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714015</v>
       </c>
       <c r="J3">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714016</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.9584558105317</v>
+        <v>15.44817966666667</v>
       </c>
       <c r="N3">
-        <v>14.9584558105317</v>
+        <v>46.344539</v>
       </c>
       <c r="O3">
-        <v>0.4928526194799816</v>
+        <v>0.4673090969404124</v>
       </c>
       <c r="P3">
-        <v>0.4928526194799816</v>
+        <v>0.4673090969404123</v>
       </c>
       <c r="Q3">
-        <v>143.1931932842762</v>
+        <v>149.2832318885654</v>
       </c>
       <c r="R3">
-        <v>143.1931932842762</v>
+        <v>1343.549086997089</v>
       </c>
       <c r="S3">
-        <v>0.2204586256485267</v>
+        <v>0.1949986683194464</v>
       </c>
       <c r="T3">
-        <v>0.2204586256485267</v>
+        <v>0.1949986683194464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.21286306852461</v>
+        <v>9.663483666666666</v>
       </c>
       <c r="H4">
-        <v>5.21286306852461</v>
+        <v>28.990451</v>
       </c>
       <c r="I4">
-        <v>0.2435851072989698</v>
+        <v>0.4172798466714015</v>
       </c>
       <c r="J4">
-        <v>0.2435851072989698</v>
+        <v>0.4172798466714016</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.3923127951311</v>
+        <v>15.39736566666667</v>
       </c>
       <c r="N4">
-        <v>15.3923127951311</v>
+        <v>46.192097</v>
       </c>
       <c r="O4">
-        <v>0.5071473805200184</v>
+        <v>0.4657719679734851</v>
       </c>
       <c r="P4">
-        <v>0.5071473805200184</v>
+        <v>0.4657719679734851</v>
       </c>
       <c r="Q4">
-        <v>80.23801890891771</v>
+        <v>148.7921916295275</v>
       </c>
       <c r="R4">
-        <v>80.23801890891771</v>
+        <v>1339.129724665747</v>
       </c>
       <c r="S4">
-        <v>0.1235335491003602</v>
+        <v>0.1943572553798128</v>
       </c>
       <c r="T4">
-        <v>0.1235335491003602</v>
+        <v>0.1943572553798128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.21286306852461</v>
+        <v>5.297564333333334</v>
       </c>
       <c r="H5">
-        <v>5.21286306852461</v>
+        <v>15.892693</v>
       </c>
       <c r="I5">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="J5">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>14.9584558105317</v>
+        <v>2.212188333333333</v>
       </c>
       <c r="N5">
-        <v>14.9584558105317</v>
+        <v>6.636565</v>
       </c>
       <c r="O5">
-        <v>0.4928526194799816</v>
+        <v>0.06691893508610254</v>
       </c>
       <c r="P5">
-        <v>0.4928526194799816</v>
+        <v>0.06691893508610254</v>
       </c>
       <c r="Q5">
-        <v>77.97638185687805</v>
+        <v>11.71921001328278</v>
       </c>
       <c r="R5">
-        <v>77.97638185687805</v>
+        <v>105.472890119545</v>
       </c>
       <c r="S5">
-        <v>0.1200515581986097</v>
+        <v>0.01530801763490695</v>
       </c>
       <c r="T5">
-        <v>0.1200515581986097</v>
+        <v>0.01530801763490695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.61499332783124</v>
+        <v>5.297564333333334</v>
       </c>
       <c r="H6">
-        <v>6.61499332783124</v>
+        <v>15.892693</v>
       </c>
       <c r="I6">
-        <v>0.3091034309477441</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="J6">
-        <v>0.3091034309477441</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.3923127951311</v>
+        <v>15.44817966666667</v>
       </c>
       <c r="N6">
-        <v>15.3923127951311</v>
+        <v>46.344539</v>
       </c>
       <c r="O6">
-        <v>0.5071473805200184</v>
+        <v>0.4673090969404124</v>
       </c>
       <c r="P6">
-        <v>0.5071473805200184</v>
+        <v>0.4673090969404123</v>
       </c>
       <c r="Q6">
-        <v>101.8200464396836</v>
+        <v>81.83772561705857</v>
       </c>
       <c r="R6">
-        <v>101.8200464396836</v>
+        <v>736.539530553527</v>
       </c>
       <c r="S6">
-        <v>0.1567609953148988</v>
+        <v>0.1068991293377874</v>
       </c>
       <c r="T6">
-        <v>0.1567609953148988</v>
+        <v>0.1068991293377874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.61499332783124</v>
+        <v>5.297564333333334</v>
       </c>
       <c r="H7">
-        <v>6.61499332783124</v>
+        <v>15.892693</v>
       </c>
       <c r="I7">
-        <v>0.3091034309477441</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="J7">
-        <v>0.3091034309477441</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.9584558105317</v>
+        <v>15.39736566666667</v>
       </c>
       <c r="N7">
-        <v>14.9584558105317</v>
+        <v>46.192097</v>
       </c>
       <c r="O7">
-        <v>0.4928526194799816</v>
+        <v>0.4657719679734851</v>
       </c>
       <c r="P7">
-        <v>0.4928526194799816</v>
+        <v>0.4657719679734851</v>
       </c>
       <c r="Q7">
-        <v>98.95008538132564</v>
+        <v>81.56853518302457</v>
       </c>
       <c r="R7">
-        <v>98.95008538132564</v>
+        <v>734.1168166472211</v>
       </c>
       <c r="S7">
-        <v>0.1523424356328453</v>
+        <v>0.1065475039375539</v>
       </c>
       <c r="T7">
-        <v>0.1523424356328453</v>
+        <v>0.1065475039375539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.197232333333334</v>
+      </c>
+      <c r="H8">
+        <v>24.591697</v>
+      </c>
+      <c r="I8">
+        <v>0.3539655024183503</v>
+      </c>
+      <c r="J8">
+        <v>0.3539655024183503</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>2.212188333333333</v>
+      </c>
+      <c r="N8">
+        <v>6.636565</v>
+      </c>
+      <c r="O8">
+        <v>0.06691893508610254</v>
+      </c>
+      <c r="P8">
+        <v>0.06691893508610254</v>
+      </c>
+      <c r="Q8">
+        <v>18.13382173342278</v>
+      </c>
+      <c r="R8">
+        <v>163.204395600805</v>
+      </c>
+      <c r="S8">
+        <v>0.02368699447905325</v>
+      </c>
+      <c r="T8">
+        <v>0.02368699447905325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.197232333333334</v>
+      </c>
+      <c r="H9">
+        <v>24.591697</v>
+      </c>
+      <c r="I9">
+        <v>0.3539655024183503</v>
+      </c>
+      <c r="J9">
+        <v>0.3539655024183503</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.44817966666667</v>
+      </c>
+      <c r="N9">
+        <v>46.344539</v>
+      </c>
+      <c r="O9">
+        <v>0.4673090969404124</v>
+      </c>
+      <c r="P9">
+        <v>0.4673090969404123</v>
+      </c>
+      <c r="Q9">
+        <v>126.6323178547426</v>
+      </c>
+      <c r="R9">
+        <v>1139.690860692683</v>
+      </c>
+      <c r="S9">
+        <v>0.1654112992831786</v>
+      </c>
+      <c r="T9">
+        <v>0.1654112992831786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.197232333333334</v>
+      </c>
+      <c r="H10">
+        <v>24.591697</v>
+      </c>
+      <c r="I10">
+        <v>0.3539655024183503</v>
+      </c>
+      <c r="J10">
+        <v>0.3539655024183503</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>15.39736566666667</v>
+      </c>
+      <c r="N10">
+        <v>46.192097</v>
+      </c>
+      <c r="O10">
+        <v>0.4657719679734851</v>
+      </c>
+      <c r="P10">
+        <v>0.4657719679734851</v>
+      </c>
+      <c r="Q10">
+        <v>126.2157836909566</v>
+      </c>
+      <c r="R10">
+        <v>1135.942053218609</v>
+      </c>
+      <c r="S10">
+        <v>0.1648672086561184</v>
+      </c>
+      <c r="T10">
+        <v>0.1648672086561184</v>
       </c>
     </row>
   </sheetData>
